--- a/Version 7.2/Prolificacy/Mean prolificacy_cattle_trial_CLM_100 runs.xlsx
+++ b/Version 7.2/Prolificacy/Mean prolificacy_cattle_trial_CLM_100 runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jarrettphillips/Desktop/GBADs Postdoc/DPM Sensitivity Analysis/DPM Version 7.2/Prolifcacy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC29C7E-6642-AD40-92C5-B446BF5FFF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E364772B-1F14-D54E-A9F9-B873A86B4745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{8665EA7D-3B16-DD48-AB65-7E256BEC0C24}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{8665EA7D-3B16-DD48-AB65-7E256BEC0C24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -523,7 +523,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Gross</a:t>
+                  <a:t>Current Gross</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
@@ -1064,7 +1064,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Gross</a:t>
+                  <a:t>Ideal Gross</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
@@ -2704,8 +2704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB7FE44-45A2-E846-8962-6E1B40F75439}">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
